--- a/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,3</t>
+          <t>-2,61; 1,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,22</t>
+          <t>-3,79; -0,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,38</t>
+          <t>-3,0; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,5</t>
+          <t>-1,07; 3,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,19</t>
+          <t>-1,33; 3,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,96</t>
+          <t>-2,46; 2,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,54</t>
+          <t>-1,3; 1,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,04</t>
+          <t>-1,92; 1,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,22</t>
+          <t>-2,27; 1,35</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,84; 80,62</t>
+          <t>-69,96; 106,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-94,71; 4,48</t>
+          <t>-100,0; 17,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 165,25</t>
+          <t>-100,0; 157,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 242,85</t>
+          <t>-34,29; 236,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 200,66</t>
+          <t>-37,68; 207,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,07; 190,55</t>
+          <t>-75,78; 185,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 80,79</t>
+          <t>-40,49; 99,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 59,83</t>
+          <t>-56,56; 67,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,17; 63,9</t>
+          <t>-76,38; 73,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,66</t>
+          <t>-1,23; 2,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,59</t>
+          <t>-2,12; 1,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,25</t>
+          <t>-1,89; 3,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,35</t>
+          <t>-3,99; 1,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,4</t>
+          <t>-3,98; 1,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; -1,95</t>
+          <t>-6,58; -2,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,64</t>
+          <t>-1,78; 1,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,78</t>
+          <t>-2,28; 0,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -0,15</t>
+          <t>-3,42; -0,25</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 114,24</t>
+          <t>-31,54; 119,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,78; 78,01</t>
+          <t>-56,82; 76,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 140,56</t>
+          <t>-49,89; 170,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 33,48</t>
+          <t>-56,87; 29,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 33,24</t>
+          <t>-56,15; 27,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,27; -40,57</t>
+          <t>-89,99; -46,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 48,05</t>
+          <t>-34,95; 51,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 24,16</t>
+          <t>-45,08; 26,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-69,15; -2,23</t>
+          <t>-68,25; -4,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,15</t>
+          <t>-1,76; 3,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,02</t>
+          <t>-2,05; 2,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,1</t>
+          <t>-2,02; 3,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,23</t>
+          <t>0,48; 6,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,71</t>
+          <t>-2,9; 3,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,14</t>
+          <t>-3,16; 2,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,14</t>
+          <t>-0,0; 4,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,28</t>
+          <t>-1,88; 2,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,09</t>
+          <t>-1,92; 2,02</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 81,04</t>
+          <t>-31,14; 85,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 79,7</t>
+          <t>-32,62; 75,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 77,36</t>
+          <t>-34,57; 104,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 108,58</t>
+          <t>3,81; 109,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 42,82</t>
+          <t>-33,59; 53,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 37,5</t>
+          <t>-35,79; 38,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 76,97</t>
+          <t>-1,27; 73,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 43,9</t>
+          <t>-25,96; 38,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 38,87</t>
+          <t>-26,64; 36,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,58</t>
+          <t>-3,26; 4,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 6,14</t>
+          <t>-1,62; 6,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 26,73</t>
+          <t>0,21; 25,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,88</t>
+          <t>-4,01; 5,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,69</t>
+          <t>-5,95; 2,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 1,16</t>
+          <t>-7,23; 0,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,61</t>
+          <t>-2,24; 3,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,19</t>
+          <t>-2,7; 3,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 11,67</t>
+          <t>-1,84; 13,56</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 59,79</t>
+          <t>-27,34; 58,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 77,98</t>
+          <t>-14,8; 75,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,46; 308,3</t>
+          <t>1,78; 341,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 34,2</t>
+          <t>-22,0; 36,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 18,73</t>
+          <t>-31,76; 20,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 9,19</t>
+          <t>-39,57; 6,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 31,81</t>
+          <t>-14,88; 30,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 27,64</t>
+          <t>-17,7; 26,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 101,17</t>
+          <t>-13,87; 115,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 0,79</t>
+          <t>-10,0; 1,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 0,89</t>
+          <t>-10,29; 1,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 1,91</t>
+          <t>-9,15; 1,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 12,28</t>
+          <t>-0,77; 12,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 7,35</t>
+          <t>-5,42; 7,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 0,13</t>
+          <t>-10,62; 0,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,37</t>
+          <t>-3,51; 5,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 2,42</t>
+          <t>-5,99; 2,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,49</t>
+          <t>-8,35; -0,61</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 3,92</t>
+          <t>-36,8; 5,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 4,86</t>
+          <t>-37,31; 5,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 8,97</t>
+          <t>-31,98; 7,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 43,45</t>
+          <t>-1,96; 44,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 27,45</t>
+          <t>-16,17; 26,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 0,47</t>
+          <t>-31,09; 1,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 20,93</t>
+          <t>-11,7; 19,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 9,29</t>
+          <t>-19,66; 10,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -1,77</t>
+          <t>-27,45; -2,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 12,65</t>
+          <t>0,13; 12,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 2,2</t>
+          <t>-9,95; 1,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -5,01</t>
+          <t>-16,51; -5,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 5,64</t>
+          <t>-4,49; 6,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -4,99</t>
+          <t>-15,76; -5,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -9,3</t>
+          <t>-31,66; -9,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,15</t>
+          <t>-0,95; 6,79</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -4,21</t>
+          <t>-11,54; -3,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,99; -9,81</t>
+          <t>-23,74; -9,37</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,78; 27,71</t>
+          <t>0,46; 28,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 4,75</t>
+          <t>-19,12; 3,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,48; -11,25</t>
+          <t>-31,04; -11,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 8,34</t>
+          <t>-6,2; 8,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,91; -7,32</t>
+          <t>-21,71; -8,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -13,44</t>
+          <t>-45,99; -13,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 11,98</t>
+          <t>-1,5; 11,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,59; -7,03</t>
+          <t>-18,29; -6,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,11; -16,28</t>
+          <t>-38,37; -15,59</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,52</t>
+          <t>-0,03; 3,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,41</t>
+          <t>-1,21; 2,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,54</t>
+          <t>0,88; 7,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,59</t>
+          <t>0,33; 4,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,59</t>
+          <t>-2,42; 1,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,11</t>
+          <t>-3,74; 0,97</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,49</t>
+          <t>0,68; 3,53</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,51</t>
+          <t>-1,32; 1,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,25</t>
+          <t>-0,41; 3,26</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 26,88</t>
+          <t>-0,12; 27,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 18,36</t>
+          <t>-8,16; 17,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>6,17; 55,29</t>
+          <t>6,05; 56,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,98; 20,41</t>
+          <t>1,18; 20,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 7,1</t>
+          <t>-10,08; 8,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 4,87</t>
+          <t>-15,78; 4,29</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,23; 19,41</t>
+          <t>3,5; 19,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 8,4</t>
+          <t>-6,86; 7,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 17,75</t>
+          <t>-2,22; 17,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,46</t>
+          <t>-2,41; 1,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,27</t>
+          <t>-3,53; -0,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,94</t>
+          <t>-3,05; 2,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,76</t>
+          <t>-1,08; 3,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,36</t>
+          <t>-1,3; 3,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,65</t>
+          <t>-2,32; 3,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,72</t>
+          <t>-1,36; 1,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,09</t>
+          <t>-1,81; 1,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,35</t>
+          <t>-2,34; 1,42</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,96; 106,3</t>
+          <t>-70,49; 96,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 17,31</t>
+          <t>-93,51; 7,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 157,7</t>
+          <t>-100,0; 157,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,29; 236,83</t>
+          <t>-35,48; 208,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 207,97</t>
+          <t>-39,32; 183,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,78; 185,67</t>
+          <t>-74,89; 180,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 99,14</t>
+          <t>-41,45; 88,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 67,26</t>
+          <t>-56,21; 56,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,38; 73,31</t>
+          <t>-75,25; 72,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,7</t>
+          <t>-1,05; 2,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,53</t>
+          <t>-2,12; 1,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,57</t>
+          <t>-1,72; 3,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,26</t>
+          <t>-4,01; 1,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,12</t>
+          <t>-3,9; 1,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -2,21</t>
+          <t>-6,53; -2,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,7</t>
+          <t>-1,75; 1,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,92</t>
+          <t>-2,25; 0,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,25</t>
+          <t>-3,54; -0,26</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 119,39</t>
+          <t>-28,59; 132,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,82; 76,46</t>
+          <t>-54,55; 93,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 170,23</t>
+          <t>-49,27; 163,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,87; 29,44</t>
+          <t>-55,91; 26,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 27,62</t>
+          <t>-56,1; 29,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,99; -46,56</t>
+          <t>-89,76; -43,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 51,84</t>
+          <t>-33,76; 42,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 26,2</t>
+          <t>-44,53; 24,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,25; -4,93</t>
+          <t>-68,74; -3,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,24</t>
+          <t>-2,05; 3,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,84</t>
+          <t>-2,21; 2,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,92</t>
+          <t>-1,97; 3,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,42</t>
+          <t>0,23; 6,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,16</t>
+          <t>-2,74; 2,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 2,33</t>
+          <t>-2,91; 2,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,05</t>
+          <t>-0,05; 3,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,01</t>
+          <t>-1,77; 2,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,02</t>
+          <t>-1,82; 2,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 85,8</t>
+          <t>-32,08; 86,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 75,35</t>
+          <t>-36,24; 77,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 104,4</t>
+          <t>-33,61; 80,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 109,69</t>
+          <t>2,28; 109,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 53,05</t>
+          <t>-31,95; 48,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 38,77</t>
+          <t>-33,23; 41,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 73,28</t>
+          <t>-0,43; 81,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 38,07</t>
+          <t>-25,1; 40,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 36,68</t>
+          <t>-25,98; 38,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 4,44</t>
+          <t>-2,9; 4,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,06</t>
+          <t>-1,42; 6,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 25,51</t>
+          <t>0,19; 24,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 5,0</t>
+          <t>-3,88; 4,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 2,75</t>
+          <t>-5,86; 2,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 0,84</t>
+          <t>-6,97; 0,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,46</t>
+          <t>-2,08; 3,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,13</t>
+          <t>-2,48; 3,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 13,56</t>
+          <t>-1,87; 12,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 58,29</t>
+          <t>-25,51; 56,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 75,81</t>
+          <t>-12,57; 77,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,78; 341,99</t>
+          <t>-1,17; 288,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 36,92</t>
+          <t>-21,88; 35,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 20,02</t>
+          <t>-31,43; 21,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 6,09</t>
+          <t>-37,61; 8,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 30,7</t>
+          <t>-14,59; 30,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 26,7</t>
+          <t>-17,28; 28,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 115,55</t>
+          <t>-14,0; 110,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 1,28</t>
+          <t>-10,39; 1,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 1,06</t>
+          <t>-10,59; 1,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 1,63</t>
+          <t>-9,09; 1,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 12,27</t>
+          <t>-1,01; 12,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 7,29</t>
+          <t>-5,21; 7,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 0,33</t>
+          <t>-10,85; 0,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,13</t>
+          <t>-3,86; 5,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 2,64</t>
+          <t>-6,03; 2,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -0,61</t>
+          <t>-8,05; -0,45</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 5,75</t>
+          <t>-37,46; 8,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,31; 5,17</t>
+          <t>-37,3; 6,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 7,77</t>
+          <t>-31,25; 7,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 44,96</t>
+          <t>-3,3; 45,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 26,53</t>
+          <t>-15,64; 25,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 1,75</t>
+          <t>-31,08; 0,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 19,92</t>
+          <t>-12,79; 19,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 10,06</t>
+          <t>-19,97; 9,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,45; -2,65</t>
+          <t>-26,32; -1,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,13; 12,83</t>
+          <t>0,42; 12,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 1,53</t>
+          <t>-10,1; 1,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -5,59</t>
+          <t>-15,76; -4,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 6,1</t>
+          <t>-3,9; 5,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -5,77</t>
+          <t>-15,67; -5,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-31,66; -9,41</t>
+          <t>-32,75; -8,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 6,79</t>
+          <t>-0,86; 7,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -3,86</t>
+          <t>-11,91; -3,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-23,74; -9,37</t>
+          <t>-24,5; -9,03</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,46; 28,33</t>
+          <t>0,67; 27,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 3,2</t>
+          <t>-19,52; 3,81</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-31,04; -11,52</t>
+          <t>-30,25; -10,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 8,85</t>
+          <t>-5,34; 8,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -8,42</t>
+          <t>-21,27; -7,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-45,99; -13,46</t>
+          <t>-45,94; -12,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 11,42</t>
+          <t>-1,34; 12,09</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -6,43</t>
+          <t>-19,05; -6,74</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-38,37; -15,59</t>
+          <t>-39,21; -15,05</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,61</t>
+          <t>-0,0; 3,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,27</t>
+          <t>-1,31; 2,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,53</t>
+          <t>0,7; 7,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,63</t>
+          <t>0,45; 4,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,76</t>
+          <t>-2,54; 1,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,97</t>
+          <t>-3,42; 1,11</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,53</t>
+          <t>0,7; 3,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,39</t>
+          <t>-1,18; 1,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,26</t>
+          <t>-0,42; 3,35</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 27,6</t>
+          <t>-0,11; 26,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 17,3</t>
+          <t>-8,75; 15,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>6,05; 56,52</t>
+          <t>4,35; 53,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,18; 20,59</t>
+          <t>1,89; 21,53</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 8,0</t>
+          <t>-10,56; 7,36</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 4,29</t>
+          <t>-13,93; 5,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,5; 19,59</t>
+          <t>3,42; 19,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 7,89</t>
+          <t>-6,1; 8,1</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 17,76</t>
+          <t>-2,11; 18,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,44</t>
+          <t>-2,72; 1,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; -0,13</t>
+          <t>-3,48; -0,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,23</t>
+          <t>-3,0; 2,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,54</t>
+          <t>-1,26; 3,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,29</t>
+          <t>-1,67; 3,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,0</t>
+          <t>-2,7; 2,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,75</t>
+          <t>-1,19; 1,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,03</t>
+          <t>-1,87; 1,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,42</t>
+          <t>-2,43; 1,22</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,49; 96,58</t>
+          <t>-72,84; 80,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-93,51; 7,48</t>
+          <t>-94,71; 4,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 157,58</t>
+          <t>-100,0; 165,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 208,73</t>
+          <t>-37,85; 242,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 183,16</t>
+          <t>-46,33; 200,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,89; 180,75</t>
+          <t>-82,07; 190,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 88,94</t>
+          <t>-38,46; 80,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 56,51</t>
+          <t>-56,15; 59,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-75,25; 72,87</t>
+          <t>-77,17; 63,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,88</t>
+          <t>-1,3; 2,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,78</t>
+          <t>-2,27; 1,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,41</t>
+          <t>-1,79; 3,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,1</t>
+          <t>-4,11; 1,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,25</t>
+          <t>-4,12; 1,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,53; -2,06</t>
+          <t>-6,48; -1,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,46</t>
+          <t>-1,67; 1,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,78</t>
+          <t>-2,32; 0,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -0,26</t>
+          <t>-3,43; -0,15</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 132,49</t>
+          <t>-33,8; 114,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,55; 93,26</t>
+          <t>-57,78; 78,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,27; 163,24</t>
+          <t>-50,75; 140,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,91; 26,18</t>
+          <t>-57,55; 33,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,1; 29,15</t>
+          <t>-56,32; 33,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,76; -43,13</t>
+          <t>-90,27; -40,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 42,21</t>
+          <t>-33,16; 48,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 24,12</t>
+          <t>-44,63; 24,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,74; -3,72</t>
+          <t>-69,15; -2,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,34</t>
+          <t>-1,64; 3,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,94</t>
+          <t>-1,98; 3,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,17</t>
+          <t>-2,21; 3,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 6,51</t>
+          <t>0,48; 6,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,84</t>
+          <t>-2,66; 2,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,38</t>
+          <t>-2,87; 2,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 3,99</t>
+          <t>0,11; 4,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,08</t>
+          <t>-1,72; 2,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,13</t>
+          <t>-1,82; 2,09</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 86,88</t>
+          <t>-29,62; 81,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 77,09</t>
+          <t>-31,52; 79,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 80,3</t>
+          <t>-36,71; 77,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 109,75</t>
+          <t>6,13; 108,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 48,56</t>
+          <t>-30,85; 42,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 41,33</t>
+          <t>-33,58; 37,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 81,05</t>
+          <t>1,51; 76,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 40,51</t>
+          <t>-24,72; 43,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 38,46</t>
+          <t>-25,44; 38,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,56</t>
+          <t>-3,13; 4,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,23</t>
+          <t>-1,39; 6,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 24,02</t>
+          <t>0,43; 26,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,85</t>
+          <t>-3,85; 4,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 2,89</t>
+          <t>-5,53; 2,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 0,98</t>
+          <t>-7,37; 1,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,45</t>
+          <t>-2,09; 3,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,35</t>
+          <t>-2,45; 3,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 12,67</t>
+          <t>-2,13; 11,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 56,19</t>
+          <t>-26,34; 59,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 77,07</t>
+          <t>-12,48; 77,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 288,42</t>
+          <t>2,46; 308,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 35,55</t>
+          <t>-21,22; 34,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 21,19</t>
+          <t>-30,7; 18,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 8,44</t>
+          <t>-39,03; 9,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 30,88</t>
+          <t>-14,91; 31,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 28,32</t>
+          <t>-17,26; 27,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 110,09</t>
+          <t>-15,82; 101,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 1,85</t>
+          <t>-10,69; 0,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 1,36</t>
+          <t>-11,0; 0,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 1,52</t>
+          <t>-8,72; 1,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 12,4</t>
+          <t>-1,11; 12,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 7,22</t>
+          <t>-5,04; 7,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 0,15</t>
+          <t>-10,86; 0,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 5,2</t>
+          <t>-3,85; 5,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 2,28</t>
+          <t>-6,07; 2,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -0,45</t>
+          <t>-7,97; -0,49</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 8,67</t>
+          <t>-37,79; 3,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 6,99</t>
+          <t>-39,0; 4,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 7,55</t>
+          <t>-31,47; 8,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 45,72</t>
+          <t>-3,45; 43,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 25,84</t>
+          <t>-14,91; 27,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 0,57</t>
+          <t>-31,22; 0,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 19,5</t>
+          <t>-12,85; 20,93</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 9,0</t>
+          <t>-20,6; 9,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,32; -1,89</t>
+          <t>-26,61; -1,77</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,42; 12,54</t>
+          <t>0,4; 12,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 1,9</t>
+          <t>-9,89; 2,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -4,8</t>
+          <t>-15,87; -5,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 5,64</t>
+          <t>-3,78; 5,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,67; -5,56</t>
+          <t>-15,87; -4,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,75; -8,85</t>
+          <t>-33,14; -9,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,22</t>
+          <t>-0,44; 7,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,91; -3,97</t>
+          <t>-11,84; -4,21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,5; -9,03</t>
+          <t>-24,99; -9,81</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,67; 27,47</t>
+          <t>0,78; 27,71</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 3,81</t>
+          <t>-19,35; 4,75</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -10,95</t>
+          <t>-30,48; -11,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 8,35</t>
+          <t>-5,17; 8,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,27; -7,82</t>
+          <t>-21,91; -7,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-45,94; -12,86</t>
+          <t>-44,57; -13,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 12,09</t>
+          <t>-0,71; 11,98</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,05; -6,74</t>
+          <t>-18,59; -7,03</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -15,05</t>
+          <t>-40,11; -16,28</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 3,4</t>
+          <t>-0,15; 3,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,0</t>
+          <t>-1,1; 2,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,36</t>
+          <t>0,91; 7,54</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,78</t>
+          <t>0,51; 4,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,62</t>
+          <t>-2,39; 1,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,11</t>
+          <t>-3,29; 1,11</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,56</t>
+          <t>0,82; 3,49</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,45</t>
+          <t>-1,25; 1,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,35</t>
+          <t>-0,49; 3,25</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 26,07</t>
+          <t>-1,05; 26,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 15,16</t>
+          <t>-7,49; 18,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4,35; 53,1</t>
+          <t>6,17; 55,29</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,89; 21,53</t>
+          <t>1,98; 20,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 7,36</t>
+          <t>-9,93; 7,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 5,06</t>
+          <t>-13,51; 4,87</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,42; 19,4</t>
+          <t>4,23; 19,41</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 8,1</t>
+          <t>-6,45; 8,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 18,95</t>
+          <t>-2,53; 17,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,86</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,38</t>
+          <t>-3,03; 2,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,96</t>
+          <t>-2,81; 2,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,22</t>
+          <t>-2,49; 1,08</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-43,9%</t>
+          <t>-45,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,56%</t>
+          <t>-17,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-27,98%</t>
+          <t>-33,25%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 165,25</t>
+          <t>-100,0; 159,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,07; 190,55</t>
+          <t>-83,87; 167,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,17; 63,9</t>
+          <t>-78,43; 63,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-2,03</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,25</t>
+          <t>-1,88; 3,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; -1,95</t>
+          <t>-6,73; -2,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -0,15</t>
+          <t>-3,53; -0,26</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-74,73%</t>
+          <t>-77,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-44,83%</t>
+          <t>-47,56%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 140,56</t>
+          <t>-53,89; 142,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,27; -40,57</t>
+          <t>-92,02; -47,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-69,15; -2,23</t>
+          <t>-70,89; -5,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,1</t>
+          <t>-2,11; 3,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,14</t>
+          <t>-3,36; 1,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,09</t>
+          <t>-2,07; 1,92</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>-9,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>-1,05%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 77,36</t>
+          <t>-36,03; 79,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 37,5</t>
+          <t>-38,76; 32,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 38,87</t>
+          <t>-28,01; 36,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>25,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>12,34</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 26,73</t>
+          <t>0,34; 60,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 1,16</t>
+          <t>-7,94; 0,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 11,67</t>
+          <t>-2,5; 39,06</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>263,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,41%</t>
+          <t>-23,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>95,2%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,46; 308,3</t>
+          <t>2,41; 772,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 9,19</t>
+          <t>-42,61; 3,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 101,17</t>
+          <t>-18,05; 337,76</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-4,47</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 1,91</t>
+          <t>-8,83; 1,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 0,13</t>
+          <t>-11,07; -0,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,49</t>
+          <t>-8,05; -0,57</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-13,55%</t>
+          <t>-13,27%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-17,47%</t>
+          <t>-17,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-15,95%</t>
+          <t>-16,03%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 8,97</t>
+          <t>-31,27; 9,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 0,47</t>
+          <t>-31,29; -0,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,61; -1,77</t>
+          <t>-26,84; -2,17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,41</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-10,64</t>
+          <t>-13,51</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-17,22</t>
+          <t>-34,47</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>-7,59</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-13,98</t>
+          <t>-22,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 12,65</t>
+          <t>-0,8; 15,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 2,2</t>
+          <t>-7,73; 7,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -5,01</t>
+          <t>-16,28; -2,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 5,64</t>
+          <t>-10,02; 5,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -4,99</t>
+          <t>-20,93; -7,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -9,3</t>
+          <t>-54,78; -19,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,15</t>
+          <t>-3,56; 7,96</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,84; -4,21</t>
+          <t>-12,81; -1,91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,99; -9,81</t>
+          <t>-36,75; -14,36</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-21,52%</t>
+          <t>-26,19%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-15,02%</t>
+          <t>-22,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-24,32%</t>
+          <t>-56,16%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-13,0%</t>
+          <t>-15,49%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>-46,2%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,78; 27,71</t>
+          <t>-2,25; 51,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 4,75</t>
+          <t>-20,15; 24,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,48; -11,25</t>
+          <t>-40,88; -7,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 8,34</t>
+          <t>-15,59; 9,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,91; -7,32</t>
+          <t>-32,65; -12,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -13,44</t>
+          <t>-84,24; -31,64</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 11,98</t>
+          <t>-6,83; 16,9</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,59; -7,03</t>
+          <t>-24,69; -4,09</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,11; -16,28</t>
+          <t>-75,07; -29,96</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>-13,35</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-9,4</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-7,06</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,52</t>
+          <t>-5,49; 12,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,41</t>
+          <t>-18,45; -0,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,54</t>
+          <t>-21,29; -6,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,59</t>
+          <t>-3,32; 9,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,59</t>
+          <t>-15,56; -1,71</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,11</t>
+          <t>-7,49; 3,03</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,49</t>
+          <t>-1,57; 8,41</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,51</t>
+          <t>-14,24; -3,46</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,25</t>
+          <t>-11,58; -2,21</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>-15,22%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>-19,71%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-10,83%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,86%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>-12,44%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>-9,34%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-7,63; 19,68</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-25,72; -1,37</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-29,64; -10,16</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 11,79</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-18,7; -2,23</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 3,96</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 11,6</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-18,44; -4,89</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-14,69; -2,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>7,31</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-2,38</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 3,52</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 2,41</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 27,62</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 4,59</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 1,59</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; -0,06</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 3,49</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 1,51</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 12,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>52,5%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-1,86%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-10,24%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-1,05; 26,88</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-7,49; 18,36</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>6,17; 55,29</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 197,56</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>1,98; 20,41</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-9,93; 7,1</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-13,51; 4,87</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-25,67; -0,36</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>4,23; 19,41</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-6,45; 8,4</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 17,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 70,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,3</t>
+          <t>-2,39; 1,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,22</t>
+          <t>-3,49; -0,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,34</t>
+          <t>-3,13; 2,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,5</t>
+          <t>-1,1; 3,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,19</t>
+          <t>-1,29; 3,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,62</t>
+          <t>-2,64; 2,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,54</t>
+          <t>-1,21; 1,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,04</t>
+          <t>-1,78; 0,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,08</t>
+          <t>-2,37; 1,41</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,84; 80,62</t>
+          <t>-72,25; 98,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-94,71; 4,48</t>
+          <t>-100,0; 19,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 159,19</t>
+          <t>-100,0; 169,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 242,85</t>
+          <t>-35,67; 228,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 200,66</t>
+          <t>-43,04; 212,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,87; 167,44</t>
+          <t>-80,67; 175,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 80,79</t>
+          <t>-38,41; 98,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 59,83</t>
+          <t>-55,95; 55,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,43; 63,1</t>
+          <t>-77,31; 70,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,66</t>
+          <t>-1,18; 2,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,59</t>
+          <t>-2,35; 1,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,25</t>
+          <t>-1,81; 3,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,35</t>
+          <t>-4,05; 1,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,4</t>
+          <t>-4,24; 1,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -2,26</t>
+          <t>-6,93; -2,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,64</t>
+          <t>-1,82; 1,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,78</t>
+          <t>-2,41; 0,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; -0,26</t>
+          <t>-3,64; -0,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 114,24</t>
+          <t>-31,75; 134,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,78; 78,01</t>
+          <t>-58,02; 74,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,89; 142,46</t>
+          <t>-52,46; 135,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 33,48</t>
+          <t>-55,33; 29,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 33,24</t>
+          <t>-55,78; 28,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-92,02; -47,36</t>
+          <t>-92,55; -51,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 48,05</t>
+          <t>-35,4; 41,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 24,16</t>
+          <t>-46,84; 26,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,89; -5,58</t>
+          <t>-71,39; -7,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,15</t>
+          <t>-1,63; 3,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,02</t>
+          <t>-1,93; 2,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,17</t>
+          <t>-1,91; 3,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,23</t>
+          <t>0,48; 6,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,71</t>
+          <t>-2,97; 2,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,86</t>
+          <t>-3,57; 1,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,14</t>
+          <t>-0,04; 4,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,28</t>
+          <t>-1,62; 2,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,92</t>
+          <t>-2,04; 1,91</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 81,04</t>
+          <t>-27,58; 85,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 79,7</t>
+          <t>-33,36; 75,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 79,28</t>
+          <t>-31,53; 91,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 108,58</t>
+          <t>5,42; 111,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 42,82</t>
+          <t>-34,18; 48,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,76; 32,93</t>
+          <t>-39,71; 33,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 76,97</t>
+          <t>-1,36; 78,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 43,9</t>
+          <t>-24,5; 41,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 36,37</t>
+          <t>-29,57; 35,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,58</t>
+          <t>-3,04; 4,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 6,14</t>
+          <t>-1,78; 5,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 60,24</t>
+          <t>-0,29; 63,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,88</t>
+          <t>-3,84; 5,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,69</t>
+          <t>-5,31; 2,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 0,57</t>
+          <t>-8,24; 0,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,61</t>
+          <t>-2,1; 3,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,19</t>
+          <t>-2,41; 3,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 39,06</t>
+          <t>-1,83; 42,82</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 59,79</t>
+          <t>-25,55; 58,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 77,98</t>
+          <t>-14,91; 75,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 772,93</t>
+          <t>-3,19; 837,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 34,2</t>
+          <t>-20,45; 36,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 18,73</t>
+          <t>-28,93; 20,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 3,46</t>
+          <t>-44,79; 0,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 31,81</t>
+          <t>-15,06; 31,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 27,64</t>
+          <t>-16,62; 27,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 337,76</t>
+          <t>-14,47; 344,07</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 0,79</t>
+          <t>-10,0; 1,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 0,89</t>
+          <t>-10,47; 1,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 1,91</t>
+          <t>-9,28; 1,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 12,28</t>
+          <t>-1,09; 12,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 7,35</t>
+          <t>-5,89; 7,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -0,1</t>
+          <t>-11,56; -0,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,37</t>
+          <t>-3,64; 5,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 2,42</t>
+          <t>-5,88; 2,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -0,57</t>
+          <t>-8,41; -0,61</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 3,92</t>
+          <t>-35,76; 9,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 4,86</t>
+          <t>-37,31; 6,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 9,05</t>
+          <t>-33,44; 8,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 43,45</t>
+          <t>-3,16; 45,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 27,45</t>
+          <t>-17,08; 26,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,29; -0,3</t>
+          <t>-32,6; -2,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 20,93</t>
+          <t>-12,12; 20,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 9,29</t>
+          <t>-20,05; 10,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,84; -2,17</t>
+          <t>-27,57; -2,47</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 15,64</t>
+          <t>-0,46; 15,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 7,51</t>
+          <t>-7,4; 7,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -2,6</t>
+          <t>-16,25; -2,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 5,21</t>
+          <t>-8,97; 5,08</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-20,93; -7,01</t>
+          <t>-20,94; -5,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-54,78; -19,16</t>
+          <t>-53,75; -18,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 7,96</t>
+          <t>-3,3; 7,95</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,81; -1,91</t>
+          <t>-13,35; -2,49</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-36,75; -14,36</t>
+          <t>-37,02; -13,88</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 51,27</t>
+          <t>-1,24; 50,48</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 24,7</t>
+          <t>-19,5; 22,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,88; -7,4</t>
+          <t>-40,59; -8,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 9,25</t>
+          <t>-14,08; 8,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -12,34</t>
+          <t>-32,69; -10,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-84,24; -31,64</t>
+          <t>-81,77; -30,99</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 16,9</t>
+          <t>-6,5; 17,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-24,69; -4,09</t>
+          <t>-25,4; -5,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-75,07; -29,96</t>
+          <t>-73,17; -29,17</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 12,27</t>
+          <t>-5,15; 11,57</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -0,89</t>
+          <t>-19,38; -2,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-21,29; -6,22</t>
+          <t>-21,31; -5,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 9,0</t>
+          <t>-2,64; 9,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-15,56; -1,71</t>
+          <t>-15,44; -2,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,03</t>
+          <t>-7,93; 2,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 8,41</t>
+          <t>-2,51; 8,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -3,46</t>
+          <t>-15,06; -4,29</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,58; -2,21</t>
+          <t>-11,36; -1,9</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 19,68</t>
+          <t>-7,16; 18,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,72; -1,37</t>
+          <t>-26,7; -3,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,64; -10,16</t>
+          <t>-29,09; -8,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 11,79</t>
+          <t>-3,24; 12,01</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,7; -2,23</t>
+          <t>-18,53; -2,63</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 3,96</t>
+          <t>-9,39; 3,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 11,6</t>
+          <t>-3,25; 11,08</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -4,89</t>
+          <t>-19,25; -5,7</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,69; -2,92</t>
+          <t>-14,53; -2,79</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,52</t>
+          <t>-0,13; 3,48</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,41</t>
+          <t>-1,28; 2,32</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,78; 27,62</t>
+          <t>0,72; 24,28</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,59</t>
+          <t>0,34; 4,56</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,59</t>
+          <t>-2,34; 1,64</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -0,06</t>
+          <t>-6,41; -0,03</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,49</t>
+          <t>0,65; 3,37</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,51</t>
+          <t>-1,36; 1,38</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 12,86</t>
+          <t>-1,06; 13,18</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 26,88</t>
+          <t>-0,76; 26,39</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 18,36</t>
+          <t>-8,41; 17,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5,63; 197,56</t>
+          <t>5,08; 178,12</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1,98; 20,41</t>
+          <t>1,4; 20,51</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 7,1</t>
+          <t>-9,82; 7,44</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-25,67; -0,36</t>
+          <t>-26,98; -0,79</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>4,23; 19,41</t>
+          <t>3,42; 19,11</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 8,4</t>
+          <t>-6,92; 7,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 70,43</t>
+          <t>-5,72; 72,82</t>
         </is>
       </c>
     </row>
